--- a/Cham Diem.xlsx
+++ b/Cham Diem.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="CHIA BANG" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Diem" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="cham_dien_1" localSheetId="2">Sheet3!$A$17:$K$34</definedName>
+    <definedName name="cham_dien_1" localSheetId="3">Sheet3!$A$17:$K$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'CHIA BANG'!$A$1:$U$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="99">
   <si>
     <t>93-100</t>
   </si>
@@ -286,6 +287,69 @@
   </si>
   <si>
     <t>Nhóm &lt;75: Mỗi người nhận 1 lần</t>
+  </si>
+  <si>
+    <t>Phiếu 1</t>
+  </si>
+  <si>
+    <t>Phiếu 2</t>
+  </si>
+  <si>
+    <t>Phiếu 3</t>
+  </si>
+  <si>
+    <t>Phiếu 4</t>
+  </si>
+  <si>
+    <t>Phiếu 5</t>
+  </si>
+  <si>
+    <t>Phiếu 6</t>
+  </si>
+  <si>
+    <t>Phiếu 7</t>
+  </si>
+  <si>
+    <t>Phiếu 8</t>
+  </si>
+  <si>
+    <t>Phiếu 9</t>
+  </si>
+  <si>
+    <t>Phiếu 10</t>
+  </si>
+  <si>
+    <t>Phiếu 11</t>
+  </si>
+  <si>
+    <t>Phiếu 12</t>
+  </si>
+  <si>
+    <t>Phiếu 13</t>
+  </si>
+  <si>
+    <t>Phiếu 14</t>
+  </si>
+  <si>
+    <t>Phiếu 15</t>
+  </si>
+  <si>
+    <t>Phiếu 16</t>
+  </si>
+  <si>
+    <t>Phiếu 17</t>
+  </si>
+  <si>
+    <t>Phiếu 18</t>
+  </si>
+  <si>
+    <t>Phiếu 19</t>
+  </si>
+  <si>
+    <t>Phiếu 20</t>
+  </si>
+  <si>
+    <t>Trung Bình</t>
   </si>
 </sst>
 </file>
@@ -353,67 +417,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -951,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:N30"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3043,27 +3047,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q6:Q21">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S21">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U21">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3082,10 +3086,967 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>IFERROR(AVERAGE(E2:X2),"")</f>
+        <v>96.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2">
+        <v>97</v>
+      </c>
+      <c r="J2" s="2">
+        <v>98</v>
+      </c>
+      <c r="K2" s="2">
+        <v>99</v>
+      </c>
+      <c r="L2" s="2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2">
+        <v>93</v>
+      </c>
+      <c r="N2" s="2">
+        <v>94</v>
+      </c>
+      <c r="O2" s="2">
+        <v>95</v>
+      </c>
+      <c r="P2" s="2">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>97</v>
+      </c>
+      <c r="R2" s="2">
+        <v>98</v>
+      </c>
+      <c r="S2" s="2">
+        <v>99</v>
+      </c>
+      <c r="T2" s="2">
+        <v>100</v>
+      </c>
+      <c r="U2" s="2">
+        <v>93</v>
+      </c>
+      <c r="V2" s="2">
+        <v>94</v>
+      </c>
+      <c r="W2" s="2">
+        <v>95</v>
+      </c>
+      <c r="X2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D21" si="0">IFERROR(AVERAGE(E3:X3),"")</f>
+        <v>96.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2">
+        <v>97</v>
+      </c>
+      <c r="J3" s="2">
+        <v>98</v>
+      </c>
+      <c r="K3" s="2">
+        <v>99</v>
+      </c>
+      <c r="L3" s="2">
+        <v>100</v>
+      </c>
+      <c r="M3" s="2">
+        <v>93</v>
+      </c>
+      <c r="N3" s="2">
+        <v>94</v>
+      </c>
+      <c r="O3" s="2">
+        <v>95</v>
+      </c>
+      <c r="P3" s="2">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>97</v>
+      </c>
+      <c r="R3" s="2">
+        <v>98</v>
+      </c>
+      <c r="S3" s="2">
+        <v>99</v>
+      </c>
+      <c r="T3" s="2">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2">
+        <v>93</v>
+      </c>
+      <c r="V3" s="2">
+        <v>94</v>
+      </c>
+      <c r="W3" s="2">
+        <v>95</v>
+      </c>
+      <c r="X3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>91.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2">
+        <v>92</v>
+      </c>
+      <c r="H4" s="2">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" s="2">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>91</v>
+      </c>
+      <c r="P4" s="2">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>90</v>
+      </c>
+      <c r="R4" s="2">
+        <v>91</v>
+      </c>
+      <c r="S4" s="2">
+        <v>92</v>
+      </c>
+      <c r="T4" s="2">
+        <v>90</v>
+      </c>
+      <c r="U4" s="2">
+        <v>91</v>
+      </c>
+      <c r="V4" s="2">
+        <v>92</v>
+      </c>
+      <c r="W4" s="2">
+        <v>92</v>
+      </c>
+      <c r="X4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>91.15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2">
+        <v>92</v>
+      </c>
+      <c r="K5" s="2">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2">
+        <v>92</v>
+      </c>
+      <c r="M5" s="2">
+        <v>92</v>
+      </c>
+      <c r="N5" s="2">
+        <v>92</v>
+      </c>
+      <c r="O5" s="2">
+        <v>91</v>
+      </c>
+      <c r="P5" s="2">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>91</v>
+      </c>
+      <c r="R5" s="2">
+        <v>91</v>
+      </c>
+      <c r="S5" s="2">
+        <v>91</v>
+      </c>
+      <c r="T5" s="2">
+        <v>91</v>
+      </c>
+      <c r="U5" s="2">
+        <v>91</v>
+      </c>
+      <c r="V5" s="2">
+        <v>91</v>
+      </c>
+      <c r="W5" s="2">
+        <v>91</v>
+      </c>
+      <c r="X5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C21">
+      <formula1>$A$24:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:K34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Cham Diem.xlsx
+++ b/Cham Diem.xlsx
@@ -364,12 +364,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -399,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +417,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,7 +965,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F21"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3089,7 +3098,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="T6" sqref="T6:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3181,7 +3190,7 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <f>IFERROR(AVERAGE(E2:X2),"")</f>
         <v>96.1</v>
       </c>
@@ -3256,7 +3265,7 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D21" si="0">IFERROR(AVERAGE(E3:X3),"")</f>
         <v>96.1</v>
       </c>
@@ -3331,7 +3340,7 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>91.1</v>
       </c>
@@ -3406,7 +3415,7 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>91.15</v>
       </c>
@@ -3481,30 +3490,70 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+        <v>80.849999999999994</v>
+      </c>
+      <c r="E6" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2">
+        <v>82</v>
+      </c>
+      <c r="K6" s="2">
+        <v>82</v>
+      </c>
+      <c r="L6" s="2">
+        <v>82</v>
+      </c>
+      <c r="M6" s="2">
+        <v>81</v>
+      </c>
+      <c r="N6" s="2">
+        <v>80</v>
+      </c>
+      <c r="O6" s="2">
+        <v>82</v>
+      </c>
+      <c r="P6" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>80</v>
+      </c>
+      <c r="R6" s="2">
+        <v>82</v>
+      </c>
+      <c r="S6" s="2">
+        <v>81</v>
+      </c>
+      <c r="T6" s="2">
+        <v>80</v>
+      </c>
+      <c r="U6" s="2">
+        <v>80</v>
+      </c>
+      <c r="V6" s="2">
+        <v>80</v>
+      </c>
+      <c r="W6" s="2">
+        <v>80</v>
+      </c>
+      <c r="X6" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -3516,7 +3565,7 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3551,7 +3600,7 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3586,7 +3635,7 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3621,7 +3670,7 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3656,7 +3705,7 @@
       <c r="C11" s="2">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3691,7 +3740,7 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3726,7 +3775,7 @@
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3761,7 +3810,7 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3796,7 +3845,7 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3831,7 +3880,7 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3866,7 +3915,7 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3901,7 +3950,7 @@
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3936,7 +3985,7 @@
       <c r="C19" s="2">
         <v>75</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3971,7 +4020,7 @@
       <c r="C20" s="2">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4006,7 +4055,7 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
